--- a/assets/pinoutV2.xlsx
+++ b/assets/pinoutV2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TEL2024_Firmware\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DE397F-A9F5-4A7E-AFFA-25CE8BBE1AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367FB8EB-7205-4301-97AC-DBD9B4C19043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="720" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30810" yWindow="1605" windowWidth="23040" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="107">
   <si>
     <t>功能</t>
   </si>
@@ -45,363 +45,368 @@
     <t>PWM 讀取</t>
   </si>
   <si>
+    <t>底盤 DC-L Encoder A</t>
+  </si>
+  <si>
+    <t>Combined Channels: Encoder Mode</t>
+  </si>
+  <si>
+    <t>底盤 DC-L Encoder B</t>
+  </si>
+  <si>
+    <t>底盤 DC-L 轉速</t>
+  </si>
+  <si>
+    <t>PWM 輸出</t>
+  </si>
+  <si>
+    <t>PWM Generation CH1</t>
+  </si>
+  <si>
+    <t>底盤 DC-L 正反</t>
+  </si>
+  <si>
+    <t>GPIO</t>
+  </si>
+  <si>
+    <t>底盤 DC-R Encoder A</t>
+  </si>
+  <si>
+    <t>底盤 DC-R Encoder B</t>
+  </si>
+  <si>
+    <t>底盤 DC-R 轉速</t>
+  </si>
+  <si>
+    <t>PWM Generation CH2</t>
+  </si>
+  <si>
+    <t>底盤 DC-R 正反</t>
+  </si>
+  <si>
+    <t>砲台轉盤 DC-L 轉速</t>
+  </si>
+  <si>
+    <t>砲台轉盤 DC-L 正反</t>
+  </si>
+  <si>
+    <t>砲台轉盤 DC-R 轉速</t>
+  </si>
+  <si>
+    <t>砲台轉盤 DC-R 正反</t>
+  </si>
+  <si>
+    <t>砲台發射 DC-L1</t>
+  </si>
+  <si>
+    <t>砲台發射 DC-L1 正反</t>
+  </si>
+  <si>
+    <t>砲台發射 DC-L2</t>
+  </si>
+  <si>
+    <t>TIM23 CH2</t>
+  </si>
+  <si>
+    <t>砲台發射 DC-L2 正反</t>
+  </si>
+  <si>
+    <t>砲台發射 DC-R1</t>
+  </si>
+  <si>
+    <t>PWM Generation CH3</t>
+  </si>
+  <si>
+    <t>砲台發射 DC-R1 正反</t>
+  </si>
+  <si>
+    <t>砲台發射 DC-R2</t>
+  </si>
+  <si>
+    <t>PWM Generation CH4</t>
+  </si>
+  <si>
+    <t>砲台發射 DC-R2 正反</t>
+  </si>
+  <si>
+    <t>砲台填彈 STEP-L step</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>砲台填彈 STEP-L 正反</t>
+  </si>
+  <si>
+    <t>砲台填彈 STEP-R step</t>
+  </si>
+  <si>
+    <t>砲台填彈 STEP-R 正反</t>
+  </si>
+  <si>
+    <t>砲台板機 SERVO-L</t>
+  </si>
+  <si>
+    <t>砲台板機 SERVO-R</t>
+  </si>
+  <si>
+    <t>砲台仰角 SERVO-L</t>
+  </si>
+  <si>
+    <t>TIM24 CH3</t>
+  </si>
+  <si>
+    <t>PF13</t>
+  </si>
+  <si>
+    <t>砲台仰角 SERVO-R</t>
+  </si>
+  <si>
+    <t>遙控器 類比訊號接收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPM 讀取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM1 CH1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM3 CH1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM3 CH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM4 CH1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM5 CH1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM5 CH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM8 CH1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM8 CH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM8 CH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM8 CH4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM24 CH1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM24 CH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM Generation CH2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM Generation CH4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM Generation CH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM17 CH1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM23 CH1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM24 CH4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM23 CH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM15 CH1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砲台轉盤 DC-R Encoder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砲台轉盤 DC-L Encoder</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Input Capture direct mode</t>
-  </si>
-  <si>
-    <t>底盤 DC-L Encoder A</t>
-  </si>
-  <si>
-    <t>Combined Channels: Encoder Mode</t>
-  </si>
-  <si>
-    <t>底盤 DC-L Encoder B</t>
-  </si>
-  <si>
-    <t>底盤 DC-L 轉速</t>
-  </si>
-  <si>
-    <t>PWM 輸出</t>
-  </si>
-  <si>
-    <t>PWM Generation CH1</t>
-  </si>
-  <si>
-    <t>底盤 DC-L 正反</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砲台轉盤 DC-L 煞車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砲台轉盤 DC-R 煞車</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPIO In</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>GPIO</t>
-  </si>
-  <si>
-    <t>底盤 DC-R Encoder A</t>
-  </si>
-  <si>
-    <t>底盤 DC-R Encoder B</t>
-  </si>
-  <si>
-    <t>底盤 DC-R 轉速</t>
-  </si>
-  <si>
-    <t>PWM Generation CH2</t>
-  </si>
-  <si>
-    <t>底盤 DC-R 正反</t>
-  </si>
-  <si>
-    <t>砲台轉盤 DC-L Encoder A</t>
-  </si>
-  <si>
-    <t>砲台轉盤 DC-L Encoder B</t>
-  </si>
-  <si>
-    <t>砲台轉盤 DC-L 轉速</t>
-  </si>
-  <si>
-    <t>砲台轉盤 DC-L 正反</t>
-  </si>
-  <si>
-    <t>砲台轉盤 DC-R Encoder A</t>
-  </si>
-  <si>
-    <t>砲台轉盤 DC-R Encoder B</t>
-  </si>
-  <si>
-    <t>砲台轉盤 DC-R 轉速</t>
-  </si>
-  <si>
-    <t>砲台轉盤 DC-R 正反</t>
-  </si>
-  <si>
-    <t>砲台發射 DC-L1</t>
-  </si>
-  <si>
-    <t>砲台發射 DC-L1 正反</t>
-  </si>
-  <si>
-    <t>砲台發射 DC-L2</t>
-  </si>
-  <si>
-    <t>TIM23 CH2</t>
-  </si>
-  <si>
-    <t>砲台發射 DC-L2 正反</t>
-  </si>
-  <si>
-    <t>砲台發射 DC-R1</t>
-  </si>
-  <si>
-    <t>PWM Generation CH3</t>
-  </si>
-  <si>
-    <t>砲台發射 DC-R1 正反</t>
-  </si>
-  <si>
-    <t>砲台發射 DC-R2</t>
-  </si>
-  <si>
-    <t>PWM Generation CH4</t>
-  </si>
-  <si>
-    <t>砲台發射 DC-R2 正反</t>
-  </si>
-  <si>
-    <t>砲台填彈 STEP-L step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Output</t>
-  </si>
-  <si>
-    <t>砲台填彈 STEP-L 正反</t>
-  </si>
-  <si>
-    <t>砲台填彈 STEP-R step</t>
-  </si>
-  <si>
-    <t>砲台填彈 STEP-R 正反</t>
-  </si>
-  <si>
-    <t>砲台板機 SERVO-L</t>
-  </si>
-  <si>
-    <t>砲台板機 SERVO-R</t>
-  </si>
-  <si>
-    <t>砲台仰角 SERVO-L</t>
-  </si>
-  <si>
-    <t>TIM24 CH3</t>
-  </si>
-  <si>
-    <t>PF13</t>
-  </si>
-  <si>
-    <t>砲台仰角 SERVO-R</t>
-  </si>
-  <si>
-    <t>遙控器 類比訊號接收</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPM 讀取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM1 CH1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM3 CH1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM3 CH2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM4 CH1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM4 CH2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM5 CH1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM5 CH2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM8 CH1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM8 CH2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM8 CH3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM8 CH4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM24 CH1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM24 CH2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM Generation CH2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM Generation CH4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PWM Generation CH3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PD3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PG10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PF11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PF12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PF7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM17 CH1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM1 CH2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PF0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM23 CH1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PF14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM24 CH4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PF1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PG12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PG13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PG11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PF2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM23 CH3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Combined Channels: Encoder Mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM15 CH1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,7 +971,7 @@
   <dimension ref="B2:R54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1055,50 +1060,50 @@
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>6</v>
+        <v>99</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="N4" s="20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="O4" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P4" s="21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
@@ -1109,237 +1114,237 @@
       <c r="F5" s="5"/>
       <c r="G5" s="2"/>
       <c r="H5" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I5" s="15" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="P5" s="24" t="s">
-        <v>63</v>
-      </c>
       <c r="Q5" s="24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="R5" s="25" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>12</v>
-      </c>
       <c r="L6" s="16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B7" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="J7" s="45"/>
       <c r="K7" s="45"/>
       <c r="L7" s="16" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>12</v>
-      </c>
       <c r="F8" s="16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I8" s="18" t="s">
         <v>5</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B9" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D9" s="45"/>
       <c r="E9" s="45"/>
       <c r="F9" s="16" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="18" t="s">
         <v>5</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B10" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>18</v>
-      </c>
       <c r="L10" s="19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="J11" s="44"/>
       <c r="K11" s="44"/>
       <c r="L11" s="19" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>18</v>
-      </c>
       <c r="F12" s="19" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="1"/>
@@ -1350,15 +1355,15 @@
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B13" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="D13" s="44"/>
       <c r="E13" s="44"/>
       <c r="F13" s="19" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="10" t="s">
@@ -1385,251 +1390,251 @@
       <c r="F14" s="5"/>
       <c r="G14" s="2"/>
       <c r="H14" s="20" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="I14" s="21" t="s">
         <v>5</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B15" s="20" t="s">
-        <v>20</v>
+        <v>98</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="20" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>91</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="J15" s="43"/>
       <c r="K15" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L15" s="22" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B16" s="20" t="s">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>91</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D16" s="43"/>
       <c r="E16" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J16" s="21" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="20" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
+      <c r="K17" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="L17" s="22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
+      <c r="E18" s="21" t="s">
+        <v>106</v>
+      </c>
       <c r="F18" s="22" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="23" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="I18" s="24" t="s">
         <v>5</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K18" s="24" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="L18" s="25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="23" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="C19" s="24" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="23" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>56</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="J19" s="24"/>
       <c r="K19" s="24" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="L19" s="25" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="23" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>56</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="D20" s="24"/>
       <c r="E20" s="24" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J20" s="24" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="K20" s="24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L20" s="25" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F21" s="25" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I21" s="24" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
+      <c r="K21" s="24" t="s">
+        <v>106</v>
+      </c>
       <c r="L21" s="25" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
+      <c r="E22" s="24" t="s">
+        <v>106</v>
+      </c>
       <c r="F22" s="25" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="1"/>
@@ -1663,234 +1668,250 @@
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="31" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C24" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>12</v>
-      </c>
       <c r="F24" s="33" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="31" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="I24" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="K24" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J24" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="K24" s="32" t="s">
-        <v>12</v>
-      </c>
       <c r="L24" s="33" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B25" s="31" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
+      <c r="E25" s="32" t="s">
+        <v>106</v>
+      </c>
       <c r="F25" s="33" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="31" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I25" s="32" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="J25" s="40"/>
-      <c r="K25" s="40"/>
+      <c r="K25" s="32" t="s">
+        <v>106</v>
+      </c>
       <c r="L25" s="33" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="29" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="29" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I26" s="30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J26" s="30" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K26" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="29" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
+      <c r="E27" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="F27" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="29" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I27" s="30" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
+      <c r="K27" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="L27" s="10" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="31" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="32" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="31" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I28" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J28" s="32" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="K28" s="32" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="L28" s="33" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B29" s="31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
+      <c r="E29" s="32" t="s">
+        <v>106</v>
+      </c>
       <c r="F29" s="33" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I29" s="32" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
+      <c r="K29" s="32" t="s">
+        <v>106</v>
+      </c>
       <c r="L29" s="33" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C30" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="26" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J30" s="27" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="K30" s="27" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="L30" s="28" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B31" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="27" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>105</v>
       </c>
       <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
+      <c r="E31" s="27" t="s">
+        <v>106</v>
+      </c>
       <c r="F31" s="28" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I31" s="27" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>105</v>
       </c>
       <c r="J31" s="39"/>
-      <c r="K31" s="39"/>
+      <c r="K31" s="27" t="s">
+        <v>106</v>
+      </c>
       <c r="L31" s="28" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
@@ -1908,17 +1929,17 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B33" s="34" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="37"/>
       <c r="E33" s="35" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="10" t="s">
@@ -1939,89 +1960,89 @@
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B34" s="34" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D34" s="37"/>
       <c r="E34" s="35" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="34" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I34" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J34" s="37"/>
       <c r="K34" s="35" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L34" s="36" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" s="38"/>
       <c r="E35" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="34" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I35" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J35" s="37"/>
       <c r="K35" s="35" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L35" s="36" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" s="38"/>
       <c r="E36" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="I36" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J36" s="38"/>
       <c r="K36" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.3">
@@ -2032,52 +2053,52 @@
       <c r="F37" s="5"/>
       <c r="G37" s="2"/>
       <c r="H37" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J37" s="38"/>
       <c r="K37" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C38" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E38" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>12</v>
-      </c>
       <c r="F38" s="16" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B39" s="17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="10" t="s">
@@ -2104,69 +2125,69 @@
       <c r="F40" s="5"/>
       <c r="G40" s="2"/>
       <c r="H40" s="14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I40" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="K40" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="K40" s="15" t="s">
-        <v>12</v>
-      </c>
       <c r="L40" s="16" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B41" s="20" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="L41" s="19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B42" s="23" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C42" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D42" s="24" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="1"/>

--- a/assets/pinoutV2.xlsx
+++ b/assets/pinoutV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TEL2024_Firmware\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367FB8EB-7205-4301-97AC-DBD9B4C19043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0489E4B-5666-41DF-8E55-D037E7F37F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30810" yWindow="1605" windowWidth="23040" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="128">
   <si>
     <t>功能</t>
   </si>
@@ -407,6 +407,90 @@
   </si>
   <si>
     <t>Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC2 INP15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC2 INP10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Single-ended</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PG9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">USART10 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART 通訊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USART6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM Generation CH4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM1 CH3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM1 CH2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -970,17 +1054,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="30.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.25" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.25" style="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" style="4"/>
     <col min="8" max="8" width="32" style="9" bestFit="1" customWidth="1"/>
@@ -1413,13 +1497,13 @@
         <v>5</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="20" t="s">
@@ -1537,13 +1621,13 @@
         <v>5</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="23" t="s">
@@ -2071,34 +2155,30 @@
         <v>39</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>11</v>
+        <v>116</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B39" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F39" s="19" t="s">
-        <v>77</v>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>114</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="10" t="s">
@@ -2118,11 +2198,21 @@
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="5"/>
+      <c r="B40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>112</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="14" t="s">
         <v>39</v>
@@ -2141,20 +2231,16 @@
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B41" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F41" s="22" t="s">
-        <v>43</v>
+      <c r="B41" s="17"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>115</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="17" t="s">
@@ -2174,21 +2260,6 @@
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B42" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="F42" s="25" t="s">
-        <v>76</v>
-      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="1"/>
       <c r="I42" s="2"/>
@@ -2197,6 +2268,21 @@
       <c r="L42" s="3"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="G43" s="2"/>
       <c r="H43" s="1"/>
       <c r="I43" s="2"/>
@@ -2205,6 +2291,21 @@
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>125</v>
+      </c>
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.3">
